--- a/InputData/indst/EoDfIP/Elasticities of Demand for Industrial Products.xlsx
+++ b/InputData/indst/EoDfIP/Elasticities of Demand for Industrial Products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\EoDfIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wa/indst/eodfip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22524823-0D3A-4448-8DBE-2DA7964E966A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F033F00E-5E82-4249-A9E8-F2DE9644EE5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="135" windowWidth="23805" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3820" yWindow="460" windowWidth="23800" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -512,6 +512,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -854,22 +855,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C1" s="19">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -877,62 +881,62 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2008</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -952,20 +956,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="12.5703125" style="6"/>
+    <col min="1" max="1" width="49.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="12.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -976,7 +980,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -987,7 +991,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -998,7 +1002,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1054,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1065,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1083,7 +1087,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -1105,7 +1109,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1116,7 +1120,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -1160,7 +1164,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -1182,7 +1186,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -1237,7 +1241,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -1270,7 +1274,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
@@ -1281,7 +1285,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -1303,7 +1307,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
@@ -1325,7 +1329,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -1336,7 +1340,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>38</v>
       </c>
@@ -1369,7 +1373,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
@@ -1435,7 +1439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
@@ -1443,7 +1447,7 @@
         <v>-0.745</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
@@ -1451,7 +1455,7 @@
         <v>-0.83299999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
@@ -1459,7 +1463,7 @@
         <v>-0.83299999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>48</v>
       </c>
@@ -1467,7 +1471,7 @@
         <v>-0.83299999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>49</v>
       </c>
@@ -1475,7 +1479,7 @@
         <v>-0.745</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>-0.745</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
@@ -1491,7 +1495,7 @@
         <v>-0.745</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>52</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>-0.745</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
@@ -1507,7 +1511,7 @@
         <v>-0.745</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>54</v>
       </c>
@@ -1527,18 +1531,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" customWidth="1"/>
-    <col min="2" max="4" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="59.5" customWidth="1"/>
+    <col min="2" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>168532</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>48460</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>126146</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>52569</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>18881</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1636,7 +1640,7 @@
         <v>56813</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1650,7 +1654,7 @@
         <v>250852</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>92926</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1678,7 +1682,7 @@
         <v>1031627</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1692,7 +1696,7 @@
         <v>486680</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1706,7 +1710,7 @@
         <v>62447</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1720,7 +1724,7 @@
         <v>133149</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>164005</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1748,7 +1752,7 @@
         <v>5177</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1762,7 +1766,7 @@
         <v>52514</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1776,7 +1780,7 @@
         <v>19882</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1790,7 +1794,7 @@
         <v>145197</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1804,7 +1808,7 @@
         <v>15558</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1818,7 +1822,7 @@
         <v>191641</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1832,7 +1836,7 @@
         <v>18270</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1846,7 +1850,7 @@
         <v>17745</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1860,7 +1864,7 @@
         <v>47725</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1874,7 +1878,7 @@
         <v>38808</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>12508</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1902,7 +1906,7 @@
         <v>9195</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1916,7 +1920,7 @@
         <v>448400</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -1930,7 +1934,7 @@
         <v>4861</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1944,7 +1948,7 @@
         <v>8132</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1958,7 +1962,7 @@
         <v>4837</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1972,7 +1976,7 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1986,7 +1990,7 @@
         <v>74686</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2000,7 +2004,7 @@
         <v>62903</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2014,7 +2018,7 @@
         <v>22262</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2028,7 +2032,7 @@
         <v>14545</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2042,7 +2046,7 @@
         <v>11142</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2056,7 +2060,7 @@
         <v>29823</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2070,7 +2074,7 @@
         <v>225327</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2084,7 +2088,7 @@
         <v>228125</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2098,7 +2102,7 @@
         <v>466241</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2112,7 +2116,7 @@
         <v>450146</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2126,7 +2130,7 @@
         <v>105557</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>158471</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2154,7 +2158,7 @@
         <v>1645222</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2168,7 +2172,7 @@
         <v>102147</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -2182,7 +2186,7 @@
         <v>187881</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2196,7 +2200,7 @@
         <v>297242</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2210,7 +2214,7 @@
         <v>625365</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2224,7 +2228,7 @@
         <v>1074983</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>1953017</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2252,7 +2256,7 @@
         <v>1927957</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2266,7 +2270,7 @@
         <v>2729030</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2295,13 +2299,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="47.5" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>62</v>
       </c>
@@ -2309,7 +2313,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>-0.81200000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2327,7 +2331,7 @@
         <v>-0.106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -2336,7 +2340,7 @@
         <v>-0.29599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -2345,7 +2349,7 @@
         <v>-0.63300000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2354,7 +2358,7 @@
         <v>-0.63800000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -2363,7 +2367,7 @@
         <v>-1.6823913135674904</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -2372,7 +2376,7 @@
         <v>-0.69799999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -2381,7 +2385,7 @@
         <v>-0.69799999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -2390,7 +2394,7 @@
         <v>-7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -2399,7 +2403,7 @@
         <v>-0.98699999999999988</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -2408,7 +2412,7 @@
         <v>-0.98528503405534762</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -2417,7 +2421,7 @@
         <v>-0.82699999999999985</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -2426,7 +2430,7 @@
         <v>-0.82699999999999985</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -2435,7 +2439,7 @@
         <v>-0.95299999999999985</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -2444,7 +2448,7 @@
         <v>-0.95300000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -2453,7 +2457,7 @@
         <v>-0.505</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -2462,7 +2466,7 @@
         <v>-2.5960000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -2471,7 +2475,7 @@
         <v>-2.5960000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -2480,7 +2484,7 @@
         <v>-1.6619999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -2489,7 +2493,7 @@
         <v>-2.4849999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -2498,7 +2502,7 @@
         <v>-2.4849999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -2507,7 +2511,7 @@
         <v>-1.6619999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -2516,7 +2520,7 @@
         <v>-0.56599999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -2525,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>103</v>
       </c>

--- a/InputData/indst/EoDfIP/Elasticities of Demand for Industrial Products.xlsx
+++ b/InputData/indst/EoDfIP/Elasticities of Demand for Industrial Products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wa/indst/eodfip/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/eodfip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F033F00E-5E82-4249-A9E8-F2DE9644EE5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AD60AF-7BE3-D247-8E83-B853DC1B4799}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="460" windowWidth="23800" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
